--- a/data/trans_bre/P32C-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Edad-trans_bre.xlsx
@@ -662,21 +662,23 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.867580115022859</v>
+        <v>-3.979185034889582</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.203107417757392</v>
+        <v>-3.815299546800142</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.939762101267908</v>
+        <v>-4.108649035424394</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.538273729620758</v>
+        <v>1.45161810028907</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="H5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -688,21 +690,23 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.824172597174033</v>
+        <v>1.219762364650269</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.02200914817791487</v>
+        <v>0.1183493700347605</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.3874861084603268</v>
+        <v>-0.3905846816944152</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.21924310589262</v>
+        <v>13.9795426941162</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.06923962790567</v>
-      </c>
-      <c r="H6" s="6" t="inlineStr"/>
+        <v>1.56157518778255</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.271264379238968</v>
+      </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -752,23 +756,23 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.543609124941681</v>
+        <v>-2.498879774488672</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.545607841600816</v>
+        <v>-3.511004320091644</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.448585230374604</v>
+        <v>-2.484061663672465</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8591862605448907</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.8620292368911351</v>
+        <v>-0.8690298242766437</v>
       </c>
       <c r="J8" s="6" t="inlineStr"/>
     </row>
@@ -780,23 +784,23 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.217811138971216</v>
+        <v>2.277622051336493</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.7968825729923066</v>
+        <v>-0.7847901267496827</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.680031706150053</v>
+        <v>1.608656616210922</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.000217531788303</v>
+        <v>3.218697742883228</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.969797568246237</v>
+        <v>1.934251101951065</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>2.699754171396506</v>
+        <v>2.223740764302705</v>
       </c>
       <c r="J9" s="6" t="inlineStr"/>
     </row>
@@ -833,7 +837,7 @@
         <v>-1</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.3183956826109451</v>
+        <v>-0.3183956826109452</v>
       </c>
     </row>
     <row r="11">
@@ -844,16 +848,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.400785713212211</v>
+        <v>-1.366060847471603</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.471334112526698</v>
+        <v>-4.625666380183118</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.699667225867803</v>
+        <v>-2.47454821718366</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.988883961064486</v>
+        <v>-2.053009605651112</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -868,16 +872,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.116560767414533</v>
+        <v>1.155095639819478</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.340505457424007</v>
+        <v>-1.32772420095987</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.3714175844195685</v>
+        <v>-0.2400082135047751</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.236756771376564</v>
+        <v>1.414455531940575</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
@@ -928,16 +932,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.168568192460735</v>
+        <v>-2.316397728294673</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.623434708432986</v>
+        <v>-5.001332305375133</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.600063195010238</v>
+        <v>-1.516600038488661</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.702580389965604</v>
+        <v>-2.85234440315639</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -954,21 +958,21 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.724768417677119</v>
+        <v>1.729672351831244</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.054832741388305</v>
+        <v>-1.095556934860603</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.0362531035271</v>
+        <v>1.89743099669676</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.3229392059299069</v>
+        <v>-0.3197313675631211</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>5.539160218417048</v>
+        <v>5.694565443712817</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
     </row>
@@ -993,7 +997,7 @@
         <v>-2.818303768834368</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.7745006840508415</v>
+        <v>-0.7745006840508412</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-1</v>
@@ -1005,7 +1009,7 @@
         <v>-1</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3224519282707111</v>
+        <v>-0.322451928270711</v>
       </c>
     </row>
     <row r="17">
@@ -1016,22 +1020,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.43759612987013</v>
+        <v>-6.897836221251547</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.456301827246495</v>
+        <v>-1.494834744524795</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.645642879672227</v>
+        <v>-5.824988679013075</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.966387071464796</v>
+        <v>-2.834564422756562</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="inlineStr"/>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.8518014710310057</v>
+        <v>-0.8592789646586542</v>
       </c>
     </row>
     <row r="18">
@@ -1042,22 +1046,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.463210901198434</v>
+        <v>-1.484029527741126</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.325424389752605</v>
+        <v>4.419376739002022</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.200942080952967</v>
+        <v>-1.209292249056632</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.775234880457334</v>
+        <v>1.697155091186318</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>1.721122802959525</v>
+        <v>1.982724129534314</v>
       </c>
     </row>
     <row r="19">
@@ -1104,21 +1108,23 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.023751990986258</v>
+        <v>-2.593873716339173</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.613292872632973</v>
+        <v>-5.72377109676991</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.609246567763411</v>
+        <v>-5.165556051286275</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.689962230453248</v>
+        <v>-2.664872466016622</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
-      <c r="J20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1131,18 +1137,20 @@
         <v>0</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.6332506829075056</v>
+        <v>-0.6409472584832312</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-0.5264670737433602</v>
+        <v>-0.5248050102247519</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.010923159278305</v>
+        <v>0.8860405099291165</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
-      <c r="J21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="n">
+        <v>5.953374478917087</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1165,7 +1173,7 @@
         <v>-1.934880324444364</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.8306672635678733</v>
+        <v>-0.8306672635678737</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-1</v>
@@ -1175,7 +1183,7 @@
         <v>-1</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.3723805834221719</v>
+        <v>-0.372380583422172</v>
       </c>
     </row>
     <row r="23">
@@ -1186,14 +1194,14 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.965717566159043</v>
+        <v>-9.874221180459283</v>
       </c>
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="n">
-        <v>-5.706947539544935</v>
+        <v>-6.745100422002233</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.321824287905686</v>
+        <v>-3.578728063223117</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
@@ -1208,14 +1216,14 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.086213705326735</v>
+        <v>-1.085728731870653</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.78236555955573</v>
+        <v>3.980144533571364</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
@@ -1243,7 +1251,7 @@
         <v>-1.063866621851007</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.09807643616023751</v>
+        <v>0.09807643616023767</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.5125030028333734</v>
@@ -1255,7 +1263,7 @@
         <v>-0.6594331129681192</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.08289009480301207</v>
+        <v>0.08289009480301224</v>
       </c>
     </row>
     <row r="26">
@@ -1266,28 +1274,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.750585886683936</v>
+        <v>-1.733869069517858</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.469220265593059</v>
+        <v>-2.509912536572148</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.766353191845053</v>
+        <v>-1.878646759538111</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.7236274875987712</v>
+        <v>-0.7535129974482381</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8139889596664097</v>
+        <v>-0.8038372109913711</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.9573457185972294</v>
+        <v>-0.9592052328968736</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.8833777317657997</v>
+        <v>-0.9032478840835232</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5334552663299705</v>
+        <v>-0.5451130344055698</v>
       </c>
     </row>
     <row r="27">
@@ -1298,28 +1306,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1399564633787552</v>
+        <v>0.1021196582867812</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-0.9618199708187811</v>
+        <v>-1.034847960112007</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-0.4050634124900465</v>
+        <v>-0.334112517630875</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.411267927257998</v>
+        <v>1.203976476762935</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1515639717510883</v>
+        <v>0.09945184461141389</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.535100271467829</v>
+        <v>-0.4983020677356305</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2154965001739956</v>
+        <v>-0.2295628204016172</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.522805554812262</v>
+        <v>1.424338016941796</v>
       </c>
     </row>
     <row r="28">
